--- a/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/材料表变更模板.xlsx
+++ b/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/材料表变更模板.xlsx
@@ -10,14 +10,14 @@
     <sheet name="单据模板" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">单据模板!$A$2:$J$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">单据模板!$A$2:$K$34</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>品牌</t>
   </si>
@@ -60,6 +60,36 @@
   </si>
   <si>
     <t>[1]材料变更单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                      
+制单人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">              设计人：               审核人：                    审批：
+                                                                                                        </t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -107,39 +137,13 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">               
-项目名称：[4]     合同编号:[5]     生产编号：[6]
-设备型号：[7]     变更日期：[8]</t>
+项目名称：[4]     合同编号：[5]     生产编号：[6]
+设备型号：[7]     部分名称：[10]    变更日期：[8]</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                                                                                                      
-制单人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[9]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">              设计人：               审核人：                    审批：
-                                                                                                        </t>
-    </r>
+    <t>所属部件</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -671,28 +675,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="1.5" customHeight="1"/>
-    <row r="2" spans="1:10" ht="18.95" customHeight="1">
+    <row r="1" spans="1:11" ht="1.5" customHeight="1"/>
+    <row r="2" spans="1:11" ht="18.95" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -703,24 +708,26 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.1" customHeight="1">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="29.1" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" ht="3" hidden="1" customHeight="1">
+      <c r="I3" s="14"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="3" hidden="1" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -729,10 +736,11 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -741,10 +749,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
@@ -756,41 +765,45 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.95" customHeight="1">
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.95" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.1" customHeight="1">
+    <row r="8" spans="1:11" ht="14.1" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -799,10 +812,11 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.1" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -811,10 +825,11 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.1" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -823,10 +838,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I10" s="2"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.1" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -835,10 +851,11 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.1" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -847,10 +864,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I12" s="2"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.1" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -859,10 +877,11 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I13" s="2"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.1" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -871,10 +890,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.1" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -883,10 +903,11 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.1" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -895,10 +916,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I16" s="2"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.1" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -907,10 +929,11 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I17" s="2"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.1" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -919,10 +942,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.1" customHeight="1">
+      <c r="I18" s="2"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.1" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -931,10 +955,11 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="I19" s="2"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
@@ -946,41 +971,45 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -989,10 +1018,11 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I22" s="2"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1001,10 +1031,11 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I23" s="2"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1013,10 +1044,11 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I24" s="2"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1025,10 +1057,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I25" s="2"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1037,10 +1070,11 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I26" s="2"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1049,10 +1083,11 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I27" s="2"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1061,10 +1096,11 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I28" s="2"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1073,10 +1109,11 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I29" s="2"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1085,10 +1122,11 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I30" s="2"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1097,10 +1135,11 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I31" s="2"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1109,10 +1148,11 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I32" s="2"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1121,12 +1161,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="30" customHeight="1">
+      <c r="I33" s="2"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" ht="30" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1135,17 +1176,18 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.95" customHeight="1"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A3:J5"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A3:K5"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.75138888888888899" top="0.59027777777777801" bottom="0.196527777777778" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/材料表变更模板.xlsx
+++ b/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/材料表变更模板.xlsx
@@ -10,14 +10,14 @@
     <sheet name="单据模板" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">单据模板!$A$2:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">单据模板!$A$2:$L$34</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>品牌</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>所属部件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -689,15 +693,15 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="7" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="1.5" customHeight="1"/>
-    <row r="2" spans="1:11" ht="18.95" customHeight="1">
+    <row r="1" spans="1:12" ht="1.5" customHeight="1"/>
+    <row r="2" spans="1:12" ht="18.95" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -709,10 +713,11 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.1" customHeight="1">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="29.1" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -724,10 +729,11 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="3" hidden="1" customHeight="1">
+      <c r="J3" s="14"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="3" hidden="1" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -737,10 +743,11 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -750,10 +757,11 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="J5" s="14"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
@@ -766,9 +774,10 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.95" customHeight="1">
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.95" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -791,19 +800,22 @@
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.1" customHeight="1">
+    <row r="8" spans="1:12" ht="14.1" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -813,10 +825,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.1" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -826,10 +839,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -839,10 +853,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J10" s="2"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.1" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -852,10 +867,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J11" s="2"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.1" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -865,10 +881,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J12" s="2"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.1" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -878,10 +895,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J13" s="2"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.1" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -891,10 +909,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J14" s="2"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.1" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -904,10 +923,11 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J15" s="2"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -917,10 +937,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J16" s="2"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -930,10 +951,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J17" s="2"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -943,10 +965,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.1" customHeight="1">
+      <c r="J18" s="2"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -956,10 +979,11 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="J19" s="2"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
@@ -972,9 +996,10 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -997,19 +1022,22 @@
         <v>9</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1019,10 +1047,11 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1032,10 +1061,11 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1045,10 +1075,11 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1058,10 +1089,11 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J25" s="2"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1071,10 +1103,11 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J26" s="2"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1084,10 +1117,11 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J27" s="2"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1097,10 +1131,11 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J28" s="2"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1110,10 +1145,11 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J29" s="2"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1123,10 +1159,11 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J30" s="2"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1136,10 +1173,11 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J31" s="2"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1149,10 +1187,11 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="J32" s="2"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1162,10 +1201,11 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" ht="30" customHeight="1">
+      <c r="J33" s="2"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
@@ -1177,17 +1217,18 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.95" customHeight="1"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A3:K5"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.75138888888888899" top="0.59027777777777801" bottom="0.196527777777778" header="0.51180555555555596" footer="0.51180555555555596"/>
